--- a/static/documentos/PROGRESO_VIRTUAL.xlsx
+++ b/static/documentos/PROGRESO_VIRTUAL.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SISTEMAS\Documents\PycharmProjects\sican\static\documentos\"/>
@@ -242,7 +242,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,6 +303,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -346,7 +352,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -363,81 +369,21 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -448,6 +394,33 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -457,15 +430,56 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="11" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -784,7 +798,7 @@
   <dimension ref="A1:AG31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:A29"/>
+      <selection activeCell="AA29" sqref="AA29:AA31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,127 +819,127 @@
       </c>
     </row>
     <row r="3" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="24" t="s">
+      <c r="A3" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="26" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="27" t="s">
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="27" t="s">
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="30" t="s">
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="W3" s="31"/>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="9" t="s">
+      <c r="W3" s="29"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="40"/>
       <c r="AB3" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="10" t="s">
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="AE3" s="10"/>
+      <c r="AE3" s="45"/>
     </row>
     <row r="4" spans="1:31" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="34"/>
+      <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="13" t="s">
+      <c r="D4" s="42"/>
+      <c r="E4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="12" t="s">
+      <c r="F4" s="37"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="14"/>
-      <c r="K4" s="13" t="s">
+      <c r="J4" s="42"/>
+      <c r="K4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="19" t="s">
+      <c r="L4" s="37"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="O4" s="21"/>
-      <c r="P4" s="20" t="s">
+      <c r="O4" s="27"/>
+      <c r="P4" s="46" t="s">
         <v>2</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R4" s="19" t="s">
+      <c r="R4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="S4" s="21"/>
-      <c r="T4" s="20" t="s">
+      <c r="S4" s="27"/>
+      <c r="T4" s="46" t="s">
         <v>2</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="V4" s="22" t="s">
+      <c r="V4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="W4" s="22" t="s">
+      <c r="W4" s="13" t="s">
         <v>2</v>
       </c>
       <c r="X4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Y4" s="22" t="s">
+      <c r="Y4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="Z4" s="22" t="s">
+      <c r="Z4" s="13" t="s">
         <v>2</v>
       </c>
       <c r="AA4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AB4" s="23" t="s">
+      <c r="AB4" s="14" t="s">
         <v>1</v>
       </c>
       <c r="AC4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="AD4" s="23" t="s">
+      <c r="AD4" s="14" t="s">
         <v>1</v>
       </c>
       <c r="AE4" s="7" t="s">
@@ -933,246 +947,246 @@
       </c>
     </row>
     <row r="5" spans="1:31" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="34"/>
+      <c r="B5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="20" t="s">
+      <c r="N5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="20" t="s">
+      <c r="O5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="P5" s="20" t="s">
+      <c r="P5" s="46" t="s">
         <v>26</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="R5" s="20" t="s">
+      <c r="R5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="S5" s="20" t="s">
+      <c r="S5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="8" t="s">
+      <c r="T5" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="U5" s="20" t="s">
+      <c r="U5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="V5" s="22" t="s">
+      <c r="V5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="W5" s="22" t="s">
+      <c r="W5" s="13" t="s">
         <v>29</v>
       </c>
       <c r="X5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Y5" s="22" t="s">
+      <c r="Y5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="Z5" s="22" t="s">
+      <c r="Z5" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="AA5" s="22" t="s">
+      <c r="AA5" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="AB5" s="23" t="s">
+      <c r="AB5" s="14" t="s">
         <v>31</v>
       </c>
       <c r="AC5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AD5" s="23"/>
+      <c r="AD5" s="14"/>
       <c r="AE5" s="7"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="18">
-        <f>B6/$B$1</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="18">
-        <f>C6/$B$1</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="18">
-        <f>D6/$B$1</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="18">
-        <f>E6/$B$1</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="18">
-        <f>F6/$B$1</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="18">
-        <f>G6/$B$1</f>
-        <v>0</v>
-      </c>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="18">
+      <c r="A6" s="10"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="11">
+        <f t="shared" ref="H6:M6" si="0">B6/$B$1</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="11">
         <f>N6/$B$1</f>
         <v>0</v>
       </c>
-      <c r="S6" s="18">
-        <f t="shared" ref="S6:U6" si="0">O6/$B$1</f>
-        <v>0</v>
-      </c>
-      <c r="T6" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U6" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V6" s="36"/>
-      <c r="W6" s="35"/>
-      <c r="X6" s="35"/>
-      <c r="Y6" s="18">
+      <c r="S6" s="11">
+        <f t="shared" ref="S6:U6" si="1">O6/$B$1</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="16"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="11">
         <f>V6/$B$1</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="18">
-        <f t="shared" ref="Z6:AA6" si="1">W6/$B$1</f>
+      <c r="Z6" s="11">
+        <f t="shared" ref="Z6:AA6" si="2">W6/$B$1</f>
         <v>0</v>
       </c>
       <c r="AA6" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB6" s="35"/>
-      <c r="AC6" s="36"/>
-      <c r="AD6" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="16"/>
+      <c r="AD6" s="11">
         <f>AB6/$B$1</f>
         <v>0</v>
       </c>
-      <c r="AE6" s="18">
+      <c r="AE6" s="11">
         <f>AC6/$B$1</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="18">
-        <f>B7/$C$1</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="18">
-        <f>C7/$C$1</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="18">
-        <f>D7/$C$1</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="18">
-        <f>E7/$C$1</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="18">
-        <f>F7/$C$1</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="18">
-        <f>G7/$C$1</f>
-        <v>0</v>
-      </c>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="18">
+      <c r="A7" s="10"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="11">
+        <f t="shared" ref="H7:M7" si="3">B7/$C$1</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="11">
         <f>N7/$C$1</f>
         <v>0</v>
       </c>
-      <c r="S7" s="18">
-        <f t="shared" ref="S7:U7" si="2">O7/$C$1</f>
-        <v>0</v>
-      </c>
-      <c r="T7" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U7" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V7" s="35"/>
-      <c r="W7" s="35"/>
-      <c r="X7" s="35"/>
-      <c r="Y7" s="18">
+      <c r="S7" s="11">
+        <f t="shared" ref="S7:U7" si="4">O7/$C$1</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="11">
         <f>V7/$C$1</f>
         <v>0</v>
       </c>
-      <c r="Z7" s="18">
-        <f t="shared" ref="Z7:AA7" si="3">W7/$C$1</f>
-        <v>0</v>
-      </c>
-      <c r="AA7" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB7" s="35"/>
-      <c r="AC7" s="36"/>
-      <c r="AD7" s="18">
+      <c r="Z7" s="11">
+        <f t="shared" ref="Z7:AA7" si="5">W7/$C$1</f>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="16"/>
+      <c r="AD7" s="11">
         <f>AB7/$C$1</f>
         <v>0</v>
       </c>
-      <c r="AE7" s="18">
+      <c r="AE7" s="11">
         <f>AC7/$C$1</f>
         <v>0</v>
       </c>
@@ -1189,362 +1203,362 @@
       </c>
     </row>
     <row r="15" spans="1:31" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="24" t="s">
+      <c r="A15" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="40" t="s">
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="27" t="s">
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="27" t="s">
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="30" t="s">
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="U15" s="31"/>
-      <c r="V15" s="30" t="s">
+      <c r="U15" s="29"/>
+      <c r="V15" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="W15" s="32"/>
-      <c r="X15" s="43" t="s">
+      <c r="W15" s="39"/>
+      <c r="X15" s="32" t="s">
         <v>8</v>
       </c>
       <c r="Y15" s="33"/>
       <c r="Z15" s="33"/>
-      <c r="AA15" s="43" t="s">
+      <c r="AA15" s="32" t="s">
         <v>8</v>
       </c>
       <c r="AB15" s="33"/>
       <c r="AC15" s="33"/>
     </row>
     <row r="16" spans="1:31" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12" t="s">
+      <c r="A16" s="34"/>
+      <c r="B16" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="12" t="s">
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="19" t="s">
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="K16" s="21"/>
-      <c r="L16" s="19" t="s">
+      <c r="K16" s="27"/>
+      <c r="L16" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="M16" s="21"/>
+      <c r="M16" s="27"/>
       <c r="N16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O16" s="19" t="s">
+      <c r="O16" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="19" t="s">
+      <c r="P16" s="27"/>
+      <c r="Q16" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="R16" s="21"/>
+      <c r="R16" s="27"/>
       <c r="S16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="T16" s="22" t="s">
+      <c r="T16" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="U16" s="22" t="s">
+      <c r="U16" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="V16" s="22" t="s">
+      <c r="V16" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="W16" s="22" t="s">
+      <c r="W16" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="X16" s="41" t="s">
+      <c r="X16" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="Y16" s="42"/>
-      <c r="Z16" s="23" t="s">
+      <c r="Y16" s="31"/>
+      <c r="Z16" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="AA16" s="41" t="s">
+      <c r="AA16" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="AB16" s="42"/>
-      <c r="AC16" s="23" t="s">
+      <c r="AB16" s="31"/>
+      <c r="AC16" s="14" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:33" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="34"/>
+      <c r="B17" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="I17" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J17" s="20" t="s">
+      <c r="J17" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="K17" s="20" t="s">
+      <c r="K17" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="L17" s="20" t="s">
+      <c r="L17" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="M17" s="20" t="s">
+      <c r="M17" s="12" t="s">
         <v>40</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O17" s="20" t="s">
+      <c r="O17" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="P17" s="20" t="s">
+      <c r="P17" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="Q17" s="20" t="s">
+      <c r="Q17" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="R17" s="20" t="s">
+      <c r="R17" s="12" t="s">
         <v>40</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="T17" s="22" t="s">
+      <c r="T17" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="U17" s="22" t="s">
+      <c r="U17" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="V17" s="22" t="s">
+      <c r="V17" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="W17" s="22" t="s">
+      <c r="W17" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="X17" s="23" t="s">
+      <c r="X17" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="Y17" s="23" t="s">
+      <c r="Y17" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="Z17" s="23" t="s">
+      <c r="Z17" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="AA17" s="23" t="s">
+      <c r="AA17" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="AB17" s="23" t="s">
+      <c r="AB17" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="AC17" s="23" t="s">
+      <c r="AC17" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="17"/>
       <c r="F18" s="6">
         <f>B18/$B$13</f>
         <v>0</v>
       </c>
       <c r="G18" s="6">
-        <f t="shared" ref="G18:I18" si="4">C18/$B$13</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="G18:I18" si="6">C18/$B$13</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="52">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I18" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="15">
         <f>J18/$B$13</f>
         <v>0</v>
       </c>
-      <c r="P18" s="35">
-        <f t="shared" ref="P18:R18" si="5">K18/$B$13</f>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="35">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R18" s="35">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S18" s="35">
+      <c r="P18" s="15">
+        <f t="shared" ref="P18:R18" si="7">K18/$B$13</f>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="15">
         <f>N18/$B$13</f>
         <v>0</v>
       </c>
-      <c r="T18" s="36"/>
-      <c r="U18" s="35"/>
-      <c r="V18" s="18">
+      <c r="T18" s="16"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="11">
         <f>T18/$B$13</f>
         <v>0</v>
       </c>
-      <c r="W18" s="18">
+      <c r="W18" s="11">
         <f>U18/$B$13</f>
         <v>0</v>
       </c>
-      <c r="X18" s="35"/>
-      <c r="Y18" s="35"/>
-      <c r="Z18" s="35"/>
-      <c r="AA18" s="18">
+      <c r="X18" s="15"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="11">
         <f>X18/$B$13</f>
         <v>0</v>
       </c>
-      <c r="AB18" s="18">
-        <f t="shared" ref="AB18:AC18" si="6">Y18/$B$13</f>
-        <v>0</v>
-      </c>
-      <c r="AC18" s="18">
-        <f t="shared" si="6"/>
+      <c r="AB18" s="11">
+        <f t="shared" ref="AB18:AC18" si="8">Y18/$B$13</f>
+        <v>0</v>
+      </c>
+      <c r="AC18" s="11">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="17"/>
       <c r="F19" s="6">
         <f>B19/$C$13</f>
         <v>0</v>
       </c>
       <c r="G19" s="6">
-        <f t="shared" ref="G19:I19" si="7">C19/$C$13</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="G19:I19" si="9">C19/$C$13</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="52">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I19" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="35">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="15">
         <f>J19/$C$13</f>
         <v>0</v>
       </c>
-      <c r="P19" s="35">
-        <f t="shared" ref="P19:S19" si="8">K19/$C$13</f>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="35">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R19" s="35">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S19" s="35">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T19" s="35"/>
-      <c r="U19" s="35"/>
-      <c r="V19" s="18">
+      <c r="P19" s="15">
+        <f t="shared" ref="P19:S19" si="10">K19/$C$13</f>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="15">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="15">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S19" s="15">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="11">
         <f>T19/$C$13</f>
         <v>0</v>
       </c>
-      <c r="W19" s="18">
+      <c r="W19" s="11">
         <f>U19/$C$13</f>
         <v>0</v>
       </c>
-      <c r="X19" s="35"/>
-      <c r="Y19" s="35"/>
-      <c r="Z19" s="35"/>
-      <c r="AA19" s="18">
+      <c r="X19" s="15"/>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="15"/>
+      <c r="AA19" s="11">
         <f>X19/$C$13</f>
         <v>0</v>
       </c>
-      <c r="AB19" s="18">
-        <f t="shared" ref="AB19:AC19" si="9">Y19/$C$13</f>
-        <v>0</v>
-      </c>
-      <c r="AC19" s="18">
-        <f t="shared" si="9"/>
+      <c r="AB19" s="11">
+        <f t="shared" ref="AB19:AC19" si="11">Y19/$C$13</f>
+        <v>0</v>
+      </c>
+      <c r="AC19" s="11">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="36"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="16"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -1553,13 +1567,13 @@
       <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="36"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="16"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -1568,13 +1582,13 @@
       <c r="M21" s="4"/>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A22" s="38"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="36"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="16"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
@@ -1583,13 +1597,13 @@
       <c r="M22" s="4"/>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="36"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="16"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -1598,13 +1612,13 @@
       <c r="M23" s="4"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A24" s="38"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="36"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="16"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -1624,418 +1638,433 @@
       </c>
     </row>
     <row r="27" spans="1:33" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="24" t="s">
+      <c r="A27" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24" t="s">
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="27" t="s">
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="28"/>
-      <c r="R27" s="27" t="s">
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="S27" s="28"/>
-      <c r="T27" s="28"/>
-      <c r="U27" s="28"/>
-      <c r="V27" s="30" t="s">
+      <c r="S27" s="25"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="W27" s="31"/>
-      <c r="X27" s="31"/>
-      <c r="Y27" s="31"/>
-      <c r="Z27" s="31"/>
-      <c r="AA27" s="30" t="s">
+      <c r="W27" s="29"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="29"/>
+      <c r="AA27" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="AB27" s="31"/>
-      <c r="AC27" s="31"/>
-      <c r="AD27" s="31"/>
-      <c r="AE27" s="31"/>
-      <c r="AF27" s="46" t="s">
+      <c r="AB27" s="29"/>
+      <c r="AC27" s="29"/>
+      <c r="AD27" s="29"/>
+      <c r="AE27" s="29"/>
+      <c r="AF27" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="AG27" s="46" t="s">
+      <c r="AG27" s="21" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:33" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12" t="s">
+      <c r="A28" s="34"/>
+      <c r="B28" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="12" t="s">
+      <c r="D28" s="37"/>
+      <c r="E28" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F28" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G28" s="12" t="s">
+      <c r="G28" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H28" s="12" t="s">
+      <c r="H28" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="I28" s="13" t="s">
+      <c r="I28" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J28" s="16"/>
-      <c r="K28" s="12" t="s">
+      <c r="J28" s="37"/>
+      <c r="K28" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="L28" s="12" t="s">
+      <c r="L28" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="M28" s="12" t="s">
+      <c r="M28" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="N28" s="19" t="s">
+      <c r="N28" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="O28" s="21"/>
-      <c r="P28" s="20" t="s">
+      <c r="O28" s="27"/>
+      <c r="P28" s="12" t="s">
         <v>2</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R28" s="19" t="s">
+      <c r="R28" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="S28" s="21"/>
-      <c r="T28" s="20" t="s">
+      <c r="S28" s="27"/>
+      <c r="T28" s="12" t="s">
         <v>2</v>
       </c>
       <c r="U28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="V28" s="22" t="s">
+      <c r="V28" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="W28" s="22" t="s">
+      <c r="W28" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="X28" s="22" t="s">
+      <c r="X28" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="Y28" s="44" t="s">
+      <c r="Y28" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="Z28" s="45"/>
-      <c r="AA28" s="22" t="s">
+      <c r="Z28" s="23"/>
+      <c r="AA28" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="AB28" s="22" t="s">
+      <c r="AB28" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="AC28" s="22" t="s">
+      <c r="AC28" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="AD28" s="44" t="s">
+      <c r="AD28" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="AE28" s="45"/>
-      <c r="AF28" s="23" t="s">
+      <c r="AE28" s="23"/>
+      <c r="AF28" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="AG28" s="23" t="s">
+      <c r="AG28" s="14" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:33" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="12" t="s">
+      <c r="A29" s="34"/>
+      <c r="B29" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F29" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="G29" s="12" t="s">
+      <c r="G29" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="H29" s="12" t="s">
+      <c r="H29" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="I29" s="12" t="s">
+      <c r="I29" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="J29" s="15" t="s">
+      <c r="J29" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="K29" s="12" t="s">
+      <c r="K29" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="L29" s="12" t="s">
+      <c r="L29" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="M29" s="12" t="s">
+      <c r="M29" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="N29" s="20" t="s">
+      <c r="N29" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="O29" s="20" t="s">
+      <c r="O29" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="P29" s="20" t="s">
+      <c r="P29" s="46" t="s">
         <v>55</v>
       </c>
       <c r="Q29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="R29" s="20" t="s">
+      <c r="R29" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="S29" s="20" t="s">
+      <c r="S29" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="T29" s="20" t="s">
+      <c r="T29" s="46" t="s">
         <v>55</v>
       </c>
       <c r="U29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="V29" s="22" t="s">
+      <c r="V29" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="W29" s="22" t="s">
+      <c r="W29" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X29" s="22" t="s">
+      <c r="X29" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="Y29" s="22" t="s">
+      <c r="Y29" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="Z29" s="22" t="s">
+      <c r="Z29" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AA29" s="22" t="s">
+      <c r="AA29" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="AB29" s="22" t="s">
+      <c r="AB29" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC29" s="22" t="s">
+      <c r="AC29" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="AD29" s="22" t="s">
+      <c r="AD29" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AE29" s="22" t="s">
+      <c r="AE29" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AF29" s="23" t="s">
+      <c r="AF29" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="AG29" s="23" t="s">
+      <c r="AG29" s="14" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="17"/>
       <c r="H30" s="6">
         <f>B30/$B$25</f>
         <v>0</v>
       </c>
-      <c r="I30" s="6">
-        <f t="shared" ref="I30:M30" si="10">C30/$B$25</f>
-        <v>0</v>
-      </c>
-      <c r="J30" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L30" s="6">
-        <f t="shared" si="10"/>
+      <c r="I30" s="52">
+        <f t="shared" ref="I30:M30" si="12">C30/$B$25</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="52">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="52">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="52">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M30" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N30" s="35"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="47"/>
+      <c r="O30" s="47"/>
+      <c r="P30" s="47"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="50">
         <f>N30/$B$25</f>
         <v>0</v>
       </c>
-      <c r="S30" s="18">
-        <f t="shared" ref="S30:U30" si="11">O30/$B$25</f>
-        <v>0</v>
-      </c>
-      <c r="T30" s="18">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="U30" s="18">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="V30" s="36"/>
-      <c r="W30" s="35"/>
-      <c r="X30" s="35"/>
-      <c r="Y30" s="35"/>
-      <c r="Z30" s="35"/>
-      <c r="AA30" s="18">
+      <c r="S30" s="50">
+        <f t="shared" ref="S30:U30" si="13">O30/$B$25</f>
+        <v>0</v>
+      </c>
+      <c r="T30" s="50">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U30" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="V30" s="48"/>
+      <c r="W30" s="15"/>
+      <c r="X30" s="15"/>
+      <c r="Y30" s="15"/>
+      <c r="Z30" s="15"/>
+      <c r="AA30" s="50">
         <f>V30/$B$25</f>
         <v>0</v>
       </c>
-      <c r="AB30" s="18">
-        <f t="shared" ref="AB30:AE30" si="12">W30/$B$25</f>
-        <v>0</v>
-      </c>
-      <c r="AC30" s="18">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AD30" s="18">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE30" s="18">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF30" s="35"/>
-      <c r="AG30" s="18">
+      <c r="AB30" s="11">
+        <f t="shared" ref="AB30:AE30" si="14">W30/$B$25</f>
+        <v>0</v>
+      </c>
+      <c r="AC30" s="11">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AD30" s="11">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE30" s="11">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AF30" s="15"/>
+      <c r="AG30" s="11">
         <f>AF30/$B$25</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="17"/>
       <c r="H31" s="6">
         <f>B31/$C$25</f>
         <v>0</v>
       </c>
-      <c r="I31" s="6">
-        <f t="shared" ref="I31:M31" si="13">C31/$C$25</f>
-        <v>0</v>
-      </c>
-      <c r="J31" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L31" s="6">
-        <f t="shared" si="13"/>
+      <c r="I31" s="52">
+        <f t="shared" ref="I31:M31" si="15">C31/$C$25</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="52">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="52">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="52">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M31" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N31" s="35"/>
-      <c r="O31" s="35"/>
-      <c r="P31" s="35"/>
-      <c r="Q31" s="36"/>
-      <c r="R31" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="50">
         <f>N31/$C$25</f>
         <v>0</v>
       </c>
-      <c r="S31" s="18">
-        <f t="shared" ref="S31:U31" si="14">O31/$C$25</f>
-        <v>0</v>
-      </c>
-      <c r="T31" s="18">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U31" s="18">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="V31" s="35"/>
-      <c r="W31" s="35"/>
-      <c r="X31" s="35"/>
-      <c r="Y31" s="35"/>
-      <c r="Z31" s="35"/>
-      <c r="AA31" s="18">
+      <c r="S31" s="50">
+        <f t="shared" ref="S31:U31" si="16">O31/$C$25</f>
+        <v>0</v>
+      </c>
+      <c r="T31" s="50">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="U31" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="V31" s="47"/>
+      <c r="W31" s="15"/>
+      <c r="X31" s="15"/>
+      <c r="Y31" s="15"/>
+      <c r="Z31" s="15"/>
+      <c r="AA31" s="50">
         <f>V31/$C$25</f>
         <v>0</v>
       </c>
-      <c r="AB31" s="18">
-        <f t="shared" ref="AB31:AE31" si="15">W31/$C$25</f>
-        <v>0</v>
-      </c>
-      <c r="AC31" s="18">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AD31" s="18">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AE31" s="18">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AF31" s="35"/>
-      <c r="AG31" s="18">
+      <c r="AB31" s="11">
+        <f t="shared" ref="AB31:AE31" si="17">W31/$C$25</f>
+        <v>0</v>
+      </c>
+      <c r="AC31" s="11">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AD31" s="11">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AE31" s="11">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AF31" s="15"/>
+      <c r="AG31" s="11">
         <f>AF31/$C$25</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="AD28:AE28"/>
-    <mergeCell ref="N27:Q27"/>
-    <mergeCell ref="R27:U27"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="Y28:Z28"/>
-    <mergeCell ref="V27:Z27"/>
+    <mergeCell ref="X15:Z15"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="R3:U3"/>
     <mergeCell ref="X16:Y16"/>
     <mergeCell ref="AA15:AC15"/>
     <mergeCell ref="AA16:AB16"/>
@@ -2052,27 +2081,12 @@
     <mergeCell ref="O15:S15"/>
     <mergeCell ref="O16:P16"/>
     <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="V3:X3"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H3:M3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="X15:Z15"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="AD28:AE28"/>
+    <mergeCell ref="N27:Q27"/>
+    <mergeCell ref="R27:U27"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="Y28:Z28"/>
+    <mergeCell ref="V27:Z27"/>
     <mergeCell ref="AA27:AE27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
